--- a/data/EditVendor.xlsx
+++ b/data/EditVendor.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\pointOfSale-workspace\makaia_framework-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testleaf\makaia_framework-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C2EF7D-2113-468D-AB86-1EF0FB021371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,22 +363,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.36328125" customWidth="1"/>
+    <col min="4" max="4" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -391,7 +392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
